--- a/data/trans_media/P34F2_HOR_2023-Estudios-trans_media.xlsx
+++ b/data/trans_media/P34F2_HOR_2023-Estudios-trans_media.xlsx
@@ -579,12 +579,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 0,87</t>
+          <t>0,66; 0,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 0,67</t>
+          <t>0,52; 0,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,34</t>
+          <t>0,72; 1,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,15</t>
+          <t>0,76; 1,11</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 0,96</t>
+          <t>0,76; 0,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 0,84</t>
+          <t>0,69; 0,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 0,87</t>
+          <t>0,74; 0,86</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 0,99</t>
+          <t>0,75; 0,98</t>
         </is>
       </c>
     </row>
